--- a/public/uploads/Dotacion turno A 14 de octubre.xlsx
+++ b/public/uploads/Dotacion turno A 14 de octubre.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Desktop\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A64966F6-D07B-42F6-9C72-02E9DCF7EE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398E1B08-4515-4C39-8037-6746F77B4752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOTACIÓN." sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOTACIÓN.!$A$6:$D$112</definedName>
@@ -1529,6 +1528,18 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,23 +1579,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1930,8 +1929,8 @@
   </sheetPr>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,46 +1952,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
     </row>
     <row r="5" spans="1:6" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
@@ -2015,7 +2014,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="74" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2030,12 +2029,12 @@
       <c r="E7" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="73">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="28" t="s">
         <v>177</v>
       </c>
@@ -2048,10 +2047,10 @@
       <c r="E8" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="85"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="10" t="s">
         <v>167</v>
       </c>
@@ -2064,10 +2063,10 @@
       <c r="E9" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="33" t="s">
         <v>263</v>
       </c>
@@ -2080,10 +2079,10 @@
       <c r="E10" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="25" t="s">
         <v>229</v>
       </c>
@@ -2096,10 +2095,10 @@
       <c r="E11" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="10" t="s">
         <v>170</v>
       </c>
@@ -2112,10 +2111,10 @@
       <c r="E12" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="73"/>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
@@ -2128,10 +2127,10 @@
       <c r="E13" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="73"/>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="12" t="s">
         <v>187</v>
       </c>
@@ -2144,10 +2143,10 @@
       <c r="E14" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="85"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
@@ -2160,10 +2159,10 @@
       <c r="E15" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="73"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="72" t="s">
         <v>185</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -2178,12 +2177,12 @@
       <c r="E16" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="F16" s="85">
+      <c r="F16" s="73">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="46" t="s">
         <v>72</v>
       </c>
@@ -2196,10 +2195,10 @@
       <c r="E17" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="73"/>
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="33" t="s">
         <v>246</v>
       </c>
@@ -2212,10 +2211,10 @@
       <c r="E18" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="73"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="10" t="s">
         <v>113</v>
       </c>
@@ -2228,10 +2227,10 @@
       <c r="E19" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="73"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="10" t="s">
         <v>7</v>
       </c>
@@ -2244,10 +2243,10 @@
       <c r="E20" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="73"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="72" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -2262,12 +2261,12 @@
       <c r="E21" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="73">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="10" t="s">
         <v>12</v>
       </c>
@@ -2280,10 +2279,10 @@
       <c r="E22" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="73"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
@@ -2296,10 +2295,10 @@
       <c r="E23" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="85"/>
+      <c r="F23" s="73"/>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="10" t="s">
         <v>165</v>
       </c>
@@ -2312,10 +2311,10 @@
       <c r="E24" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="85"/>
+      <c r="F24" s="73"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="10" t="s">
         <v>125</v>
       </c>
@@ -2328,10 +2327,10 @@
       <c r="E25" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F25" s="85"/>
+      <c r="F25" s="73"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="10" t="s">
         <v>20</v>
       </c>
@@ -2344,10 +2343,10 @@
       <c r="E26" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="85"/>
+      <c r="F26" s="73"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="10" t="s">
         <v>153</v>
       </c>
@@ -2360,10 +2359,10 @@
       <c r="E27" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="85"/>
+      <c r="F27" s="73"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -2376,10 +2375,10 @@
       <c r="E28" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="85"/>
+      <c r="F28" s="73"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="10" t="s">
         <v>24</v>
       </c>
@@ -2392,10 +2391,10 @@
       <c r="E29" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="85"/>
+      <c r="F29" s="73"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="72" t="s">
         <v>154</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2410,12 +2409,12 @@
       <c r="E30" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="85">
+      <c r="F30" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
@@ -2428,10 +2427,10 @@
       <c r="E31" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="85"/>
+      <c r="F31" s="73"/>
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="89"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="10" t="s">
         <v>133</v>
       </c>
@@ -2444,10 +2443,10 @@
       <c r="E32" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="85"/>
+      <c r="F32" s="73"/>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="3" t="s">
         <v>62</v>
       </c>
@@ -2460,10 +2459,10 @@
       <c r="E33" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="85"/>
+      <c r="F33" s="73"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="5" t="s">
         <v>127</v>
       </c>
@@ -2476,10 +2475,10 @@
       <c r="E34" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="F34" s="85"/>
+      <c r="F34" s="73"/>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="72" t="s">
         <v>240</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -2494,12 +2493,12 @@
       <c r="E35" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F35" s="85">
+      <c r="F35" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
@@ -2512,10 +2511,10 @@
       <c r="E36" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F36" s="85"/>
+      <c r="F36" s="73"/>
     </row>
     <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="10" t="s">
         <v>215</v>
       </c>
@@ -2528,10 +2527,10 @@
       <c r="E37" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F37" s="85"/>
+      <c r="F37" s="73"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="5" t="s">
         <v>131</v>
       </c>
@@ -2544,10 +2543,10 @@
       <c r="E38" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="85"/>
+      <c r="F38" s="73"/>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="72" t="s">
         <v>231</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -2562,12 +2561,12 @@
       <c r="E39" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="85">
+      <c r="F39" s="73">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="10" t="s">
         <v>159</v>
       </c>
@@ -2580,10 +2579,10 @@
       <c r="E40" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F40" s="85"/>
+      <c r="F40" s="73"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="10" t="s">
         <v>223</v>
       </c>
@@ -2596,10 +2595,10 @@
       <c r="E41" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F41" s="85"/>
+      <c r="F41" s="73"/>
     </row>
     <row r="42" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="10" t="s">
         <v>123</v>
       </c>
@@ -2612,10 +2611,10 @@
       <c r="E42" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F42" s="85"/>
+      <c r="F42" s="73"/>
     </row>
     <row r="43" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="10" t="s">
         <v>160</v>
       </c>
@@ -2628,10 +2627,10 @@
       <c r="E43" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="85"/>
+      <c r="F43" s="73"/>
     </row>
     <row r="44" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="72" t="s">
         <v>232</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -2646,12 +2645,12 @@
       <c r="E44" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="88">
+      <c r="F44" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="89"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="31" t="s">
         <v>32</v>
       </c>
@@ -2664,10 +2663,10 @@
       <c r="E45" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="88"/>
+      <c r="F45" s="75"/>
     </row>
     <row r="46" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="89"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="15" t="s">
         <v>210</v>
       </c>
@@ -2680,10 +2679,10 @@
       <c r="E46" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="88"/>
+      <c r="F46" s="75"/>
     </row>
     <row r="47" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="89"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="10" t="s">
         <v>147</v>
       </c>
@@ -2696,10 +2695,10 @@
       <c r="E47" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="88"/>
+      <c r="F47" s="75"/>
     </row>
     <row r="48" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="3" t="s">
         <v>39</v>
       </c>
@@ -2712,10 +2711,10 @@
       <c r="E48" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="88"/>
+      <c r="F48" s="75"/>
     </row>
     <row r="49" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="10" t="s">
         <v>135</v>
       </c>
@@ -2728,10 +2727,10 @@
       <c r="E49" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="88"/>
+      <c r="F49" s="75"/>
     </row>
     <row r="50" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="10" t="s">
         <v>35</v>
       </c>
@@ -2744,10 +2743,10 @@
       <c r="E50" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="88"/>
+      <c r="F50" s="75"/>
     </row>
     <row r="51" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="72" t="s">
         <v>200</v>
       </c>
       <c r="B51" s="37" t="s">
@@ -2762,12 +2761,12 @@
       <c r="E51" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F51" s="85">
+      <c r="F51" s="73">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="89"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="10" t="s">
         <v>225</v>
       </c>
@@ -2780,10 +2779,10 @@
       <c r="E52" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F52" s="85"/>
+      <c r="F52" s="73"/>
     </row>
     <row r="53" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="89"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="3" t="s">
         <v>44</v>
       </c>
@@ -2796,10 +2795,10 @@
       <c r="E53" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F53" s="85"/>
+      <c r="F53" s="73"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="89"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="10" t="s">
         <v>138</v>
       </c>
@@ -2812,10 +2811,10 @@
       <c r="E54" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="85"/>
+      <c r="F54" s="73"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="89"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="12" t="s">
         <v>198</v>
       </c>
@@ -2828,10 +2827,10 @@
       <c r="E55" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="85"/>
+      <c r="F55" s="73"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="90" t="s">
+      <c r="A56" s="74" t="s">
         <v>155</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -2846,12 +2845,12 @@
       <c r="E56" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F56" s="85">
+      <c r="F56" s="73">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="90"/>
+      <c r="A57" s="74"/>
       <c r="B57" s="10" t="s">
         <v>116</v>
       </c>
@@ -2864,10 +2863,10 @@
       <c r="E57" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F57" s="85"/>
+      <c r="F57" s="73"/>
     </row>
     <row r="58" spans="1:6" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="10" t="s">
         <v>96</v>
       </c>
@@ -2880,10 +2879,10 @@
       <c r="E58" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F58" s="85"/>
+      <c r="F58" s="73"/>
     </row>
     <row r="59" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="89" t="s">
+      <c r="A59" s="72" t="s">
         <v>195</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -2898,12 +2897,12 @@
       <c r="E59" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F59" s="88">
+      <c r="F59" s="75">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="89"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
@@ -2916,10 +2915,10 @@
       <c r="E60" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F60" s="88"/>
+      <c r="F60" s="75"/>
     </row>
     <row r="61" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="89"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="25" t="s">
         <v>230</v>
       </c>
@@ -2932,10 +2931,10 @@
       <c r="E61" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F61" s="88"/>
+      <c r="F61" s="75"/>
     </row>
     <row r="62" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="89"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="10" t="s">
         <v>236</v>
       </c>
@@ -2948,10 +2947,10 @@
       <c r="E62" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="88"/>
+      <c r="F62" s="75"/>
     </row>
     <row r="63" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="89"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="10" t="s">
         <v>106</v>
       </c>
@@ -2964,10 +2963,10 @@
       <c r="E63" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F63" s="88"/>
+      <c r="F63" s="75"/>
     </row>
     <row r="64" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="89"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="10" t="s">
         <v>186</v>
       </c>
@@ -2980,10 +2979,10 @@
       <c r="E64" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F64" s="88"/>
+      <c r="F64" s="75"/>
     </row>
     <row r="65" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="12" t="s">
         <v>181</v>
       </c>
@@ -2996,10 +2995,10 @@
       <c r="E65" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F65" s="88"/>
+      <c r="F65" s="75"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="90" t="s">
+      <c r="A66" s="74" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -3014,12 +3013,12 @@
       <c r="E66" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F66" s="87">
+      <c r="F66" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="90"/>
+      <c r="A67" s="74"/>
       <c r="B67" s="12" t="s">
         <v>157</v>
       </c>
@@ -3032,10 +3031,10 @@
       <c r="E67" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F67" s="87"/>
+      <c r="F67" s="90"/>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
+      <c r="A68" s="74"/>
       <c r="B68" s="3" t="s">
         <v>58</v>
       </c>
@@ -3048,7 +3047,7 @@
       <c r="E68" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="87"/>
+      <c r="F68" s="90"/>
     </row>
     <row r="69" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="69" t="s">
@@ -3071,7 +3070,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="90" t="s">
+      <c r="A70" s="74" t="s">
         <v>266</v>
       </c>
       <c r="B70" s="37" t="s">
@@ -3086,12 +3085,12 @@
       <c r="E70" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F70" s="85">
+      <c r="F70" s="73">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="90"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="10" t="s">
         <v>64</v>
       </c>
@@ -3104,10 +3103,10 @@
       <c r="E71" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F71" s="85"/>
+      <c r="F71" s="73"/>
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="90"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="31" t="s">
         <v>241</v>
       </c>
@@ -3120,10 +3119,10 @@
       <c r="E72" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F72" s="85"/>
+      <c r="F72" s="73"/>
     </row>
     <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="90"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="10" t="s">
         <v>163</v>
       </c>
@@ -3136,10 +3135,10 @@
       <c r="E73" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F73" s="85"/>
+      <c r="F73" s="73"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="90"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="37" t="s">
         <v>60</v>
       </c>
@@ -3152,10 +3151,10 @@
       <c r="E74" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F74" s="85"/>
+      <c r="F74" s="73"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="90" t="s">
+      <c r="A75" s="74" t="s">
         <v>156</v>
       </c>
       <c r="B75" s="46" t="s">
@@ -3170,12 +3169,12 @@
       <c r="E75" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F75" s="85">
+      <c r="F75" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="90"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="10" t="s">
         <v>48</v>
       </c>
@@ -3188,10 +3187,10 @@
       <c r="E76" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F76" s="85"/>
+      <c r="F76" s="73"/>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="10" t="s">
         <v>70</v>
       </c>
@@ -3204,10 +3203,10 @@
       <c r="E77" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F77" s="85"/>
+      <c r="F77" s="73"/>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="10" t="s">
         <v>66</v>
       </c>
@@ -3220,10 +3219,10 @@
       <c r="E78" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F78" s="85"/>
+      <c r="F78" s="73"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="72" t="s">
         <v>74</v>
       </c>
       <c r="B79" s="15" t="s">
@@ -3238,12 +3237,12 @@
       <c r="E79" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="85">
+      <c r="F79" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="89"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="15" t="s">
         <v>80</v>
       </c>
@@ -3256,10 +3255,10 @@
       <c r="E80" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F80" s="85"/>
+      <c r="F80" s="73"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="89"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="15" t="s">
         <v>78</v>
       </c>
@@ -3272,10 +3271,10 @@
       <c r="E81" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F81" s="85"/>
+      <c r="F81" s="73"/>
     </row>
     <row r="82" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="90" t="s">
+      <c r="A82" s="74" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3290,12 +3289,12 @@
       <c r="E82" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F82" s="85">
+      <c r="F82" s="73">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="90"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="10" t="s">
         <v>152</v>
       </c>
@@ -3308,10 +3307,10 @@
       <c r="E83" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F83" s="85"/>
+      <c r="F83" s="73"/>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="90"/>
+      <c r="A84" s="74"/>
       <c r="B84" s="10" t="s">
         <v>83</v>
       </c>
@@ -3324,10 +3323,10 @@
       <c r="E84" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F84" s="85"/>
+      <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="90" t="s">
+      <c r="A85" s="74" t="s">
         <v>203</v>
       </c>
       <c r="B85" s="10" t="s">
@@ -3342,12 +3341,12 @@
       <c r="E85" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F85" s="85">
+      <c r="F85" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
+      <c r="A86" s="74"/>
       <c r="B86" s="25" t="s">
         <v>149</v>
       </c>
@@ -3360,10 +3359,10 @@
       <c r="E86" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F86" s="85"/>
+      <c r="F86" s="73"/>
     </row>
     <row r="87" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="74" t="s">
         <v>201</v>
       </c>
       <c r="B87" s="33" t="s">
@@ -3378,12 +3377,12 @@
       <c r="E87" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F87" s="86">
+      <c r="F87" s="89">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
+      <c r="A88" s="74"/>
       <c r="B88" s="33" t="s">
         <v>87</v>
       </c>
@@ -3396,10 +3395,10 @@
       <c r="E88" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="F88" s="86"/>
+      <c r="F88" s="89"/>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
+      <c r="A89" s="74"/>
       <c r="B89" s="33" t="s">
         <v>121</v>
       </c>
@@ -3412,10 +3411,10 @@
       <c r="E89" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="F89" s="86"/>
+      <c r="F89" s="89"/>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
+      <c r="A90" s="74"/>
       <c r="B90" s="33" t="s">
         <v>89</v>
       </c>
@@ -3428,10 +3427,10 @@
       <c r="E90" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="86"/>
+      <c r="F90" s="89"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="90"/>
+      <c r="A91" s="74"/>
       <c r="B91" s="33" t="s">
         <v>141</v>
       </c>
@@ -3444,10 +3443,10 @@
       <c r="E91" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="F91" s="86"/>
+      <c r="F91" s="89"/>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
+      <c r="A92" s="74"/>
       <c r="B92" s="33" t="s">
         <v>91</v>
       </c>
@@ -3460,10 +3459,10 @@
       <c r="E92" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="86"/>
+      <c r="F92" s="89"/>
     </row>
     <row r="93" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="90"/>
+      <c r="A93" s="74"/>
       <c r="B93" s="33" t="s">
         <v>257</v>
       </c>
@@ -3476,10 +3475,10 @@
       <c r="E93" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="86"/>
+      <c r="F93" s="89"/>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
+      <c r="A94" s="74"/>
       <c r="B94" s="33" t="s">
         <v>93</v>
       </c>
@@ -3492,10 +3491,10 @@
       <c r="E94" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="86"/>
+      <c r="F94" s="89"/>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="90"/>
+      <c r="A95" s="74"/>
       <c r="B95" s="33" t="s">
         <v>217</v>
       </c>
@@ -3508,10 +3507,10 @@
       <c r="E95" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="86"/>
+      <c r="F95" s="89"/>
     </row>
     <row r="96" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="83" t="s">
+      <c r="A96" s="87" t="s">
         <v>267</v>
       </c>
       <c r="B96" s="33" t="s">
@@ -3526,12 +3525,12 @@
       <c r="E96" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="F96" s="84">
+      <c r="F96" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="83"/>
+      <c r="A97" s="87"/>
       <c r="B97" s="33" t="s">
         <v>249</v>
       </c>
@@ -3544,10 +3543,10 @@
       <c r="E97" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="F97" s="84"/>
+      <c r="F97" s="88"/>
     </row>
     <row r="98" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="83"/>
+      <c r="A98" s="87"/>
       <c r="B98" s="33" t="s">
         <v>251</v>
       </c>
@@ -3560,10 +3559,10 @@
       <c r="E98" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="F98" s="84"/>
+      <c r="F98" s="88"/>
     </row>
     <row r="99" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="83"/>
+      <c r="A99" s="87"/>
       <c r="B99" s="33" t="s">
         <v>253</v>
       </c>
@@ -3576,10 +3575,10 @@
       <c r="E99" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="F99" s="84"/>
+      <c r="F99" s="88"/>
     </row>
     <row r="100" spans="1:6" s="14" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="83"/>
+      <c r="A100" s="87"/>
       <c r="B100" s="33" t="s">
         <v>255</v>
       </c>
@@ -3592,10 +3591,10 @@
       <c r="E100" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="F100" s="84"/>
+      <c r="F100" s="88"/>
     </row>
     <row r="101" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="83"/>
+      <c r="A101" s="87"/>
       <c r="B101" s="58" t="s">
         <v>259</v>
       </c>
@@ -3608,10 +3607,10 @@
       <c r="E101" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="F101" s="84"/>
+      <c r="F101" s="88"/>
     </row>
     <row r="102" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="83"/>
+      <c r="A102" s="87"/>
       <c r="B102" s="33" t="s">
         <v>261</v>
       </c>
@@ -3624,10 +3623,10 @@
       <c r="E102" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="F102" s="84"/>
+      <c r="F102" s="88"/>
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="89" t="s">
+      <c r="A103" s="72" t="s">
         <v>172</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -3642,12 +3641,12 @@
       <c r="E103" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="F103" s="87">
+      <c r="F103" s="90">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="89"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="10" t="s">
         <v>137</v>
       </c>
@@ -3660,10 +3659,10 @@
       <c r="E104" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="F104" s="87"/>
+      <c r="F104" s="90"/>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="89"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="3" t="s">
         <v>189</v>
       </c>
@@ -3676,10 +3675,10 @@
       <c r="E105" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="F105" s="87"/>
+      <c r="F105" s="90"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="89"/>
+      <c r="A106" s="72"/>
       <c r="B106" s="10" t="s">
         <v>100</v>
       </c>
@@ -3692,10 +3691,10 @@
       <c r="E106" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="F106" s="87"/>
+      <c r="F106" s="90"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="89" t="s">
+      <c r="A107" s="72" t="s">
         <v>235</v>
       </c>
       <c r="B107" s="12" t="s">
@@ -3710,12 +3709,12 @@
       <c r="E107" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="F107" s="88">
+      <c r="F107" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="89"/>
+      <c r="A108" s="72"/>
       <c r="B108" s="12" t="s">
         <v>119</v>
       </c>
@@ -3728,7 +3727,7 @@
       <c r="E108" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="F108" s="88"/>
+      <c r="F108" s="75"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
@@ -3746,7 +3745,7 @@
       <c r="E109" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="F109" s="72">
+      <c r="F109" s="76">
         <v>4</v>
       </c>
     </row>
@@ -3766,7 +3765,7 @@
       <c r="E110" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="F110" s="72"/>
+      <c r="F110" s="76"/>
     </row>
     <row r="111" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
@@ -3784,7 +3783,7 @@
       <c r="E111" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="F111" s="72"/>
+      <c r="F111" s="76"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
@@ -3802,7 +3801,7 @@
       <c r="E112" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="F112" s="73"/>
+      <c r="F112" s="77"/>
     </row>
     <row r="113" spans="5:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E113" s="66" t="s">
@@ -3819,11 +3818,27 @@
   </sheetData>
   <autoFilter ref="A6:D112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="42">
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="F59:F65"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="A1:F5"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="F96:F102"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F87:F95"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="F35:F38"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="A103:A106"/>
     <mergeCell ref="A7:A15"/>
@@ -3840,947 +3855,15 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="A1:F5"/>
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="F96:F102"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F87:F95"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="F59:F65"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="42" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="I17:O116"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="7" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-    </row>
-    <row r="23" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-    </row>
-    <row r="24" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-    </row>
-    <row r="26" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-    </row>
-    <row r="29" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-    </row>
-    <row r="31" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-    </row>
-    <row r="33" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-    </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-    </row>
-    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-    </row>
-    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-    </row>
-    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-    </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-    </row>
-    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-    </row>
-    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-    </row>
-    <row r="41" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-    </row>
-    <row r="42" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-    </row>
-    <row r="43" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-    </row>
-    <row r="44" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-    </row>
-    <row r="45" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-    </row>
-    <row r="46" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-    </row>
-    <row r="47" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-    </row>
-    <row r="48" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-    </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-    </row>
-    <row r="50" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-    </row>
-    <row r="51" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-    </row>
-    <row r="52" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-    </row>
-    <row r="53" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-    </row>
-    <row r="54" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-    </row>
-    <row r="55" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-    </row>
-    <row r="56" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-    </row>
-    <row r="57" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-    </row>
-    <row r="58" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-    </row>
-    <row r="59" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-    </row>
-    <row r="60" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-    </row>
-    <row r="61" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-    </row>
-    <row r="62" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-    </row>
-    <row r="63" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-    </row>
-    <row r="64" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-    </row>
-    <row r="65" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-    </row>
-    <row r="66" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-    </row>
-    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-    </row>
-    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-    </row>
-    <row r="69" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-    </row>
-    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-    </row>
-    <row r="71" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-    </row>
-    <row r="72" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-    </row>
-    <row r="73" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-    </row>
-    <row r="74" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-    </row>
-    <row r="75" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-    </row>
-    <row r="76" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-    </row>
-    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-    </row>
-    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-    </row>
-    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
-    </row>
-    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
-    </row>
-    <row r="81" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-    </row>
-    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
-    </row>
-    <row r="83" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
-    </row>
-    <row r="84" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-    </row>
-    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-    </row>
-    <row r="86" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-    </row>
-    <row r="87" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-    </row>
-    <row r="88" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-    </row>
-    <row r="89" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-    </row>
-    <row r="90" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
-    </row>
-    <row r="91" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-    </row>
-    <row r="92" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
-    </row>
-    <row r="93" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
-    </row>
-    <row r="94" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-    </row>
-    <row r="95" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
-    </row>
-    <row r="96" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-    </row>
-    <row r="97" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-    </row>
-    <row r="98" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-    </row>
-    <row r="99" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
-    </row>
-    <row r="100" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-    </row>
-    <row r="101" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
-    </row>
-    <row r="102" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
-      <c r="O102" s="14"/>
-    </row>
-    <row r="103" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
-    </row>
-    <row r="104" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
-      <c r="O104" s="14"/>
-    </row>
-    <row r="105" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
-      <c r="N105" s="14"/>
-      <c r="O105" s="14"/>
-    </row>
-    <row r="106" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="14"/>
-    </row>
-    <row r="107" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="14"/>
-      <c r="N107" s="14"/>
-      <c r="O107" s="14"/>
-    </row>
-    <row r="108" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-    </row>
-    <row r="109" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
-    </row>
-    <row r="110" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
-      <c r="K110" s="14"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="14"/>
-      <c r="N110" s="14"/>
-      <c r="O110" s="14"/>
-    </row>
-    <row r="111" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="14"/>
-    </row>
-    <row r="112" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
-    </row>
-    <row r="113" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14"/>
-    </row>
-    <row r="114" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="14"/>
-    </row>
-    <row r="115" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
-      <c r="L115" s="14"/>
-      <c r="M115" s="14"/>
-      <c r="N115" s="14"/>
-      <c r="O115" s="14"/>
-    </row>
-    <row r="116" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
-      <c r="L116" s="14"/>
-      <c r="M116" s="14"/>
-      <c r="N116" s="14"/>
-      <c r="O116" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>